--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Col4a1-Cd93.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Col4a1-Cd93.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>151.422271097185</v>
+        <v>228.2871476666667</v>
       </c>
       <c r="H2">
-        <v>151.422271097185</v>
+        <v>684.861443</v>
       </c>
       <c r="I2">
-        <v>0.5331482951864464</v>
+        <v>0.6105798777018374</v>
       </c>
       <c r="J2">
-        <v>0.5331482951864464</v>
+        <v>0.6105798777018375</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>98.6746499847988</v>
+        <v>127.984071</v>
       </c>
       <c r="N2">
-        <v>98.6746499847988</v>
+        <v>383.952213</v>
       </c>
       <c r="O2">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="P2">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="Q2">
-        <v>14941.53960041805</v>
+        <v>29217.11851535815</v>
       </c>
       <c r="R2">
-        <v>14941.53960041805</v>
+        <v>262954.0666382234</v>
       </c>
       <c r="S2">
-        <v>0.2160406698513104</v>
+        <v>0.280545548349183</v>
       </c>
       <c r="T2">
-        <v>0.2160406698513104</v>
+        <v>0.280545548349183</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>151.422271097185</v>
+        <v>228.2871476666667</v>
       </c>
       <c r="H3">
-        <v>151.422271097185</v>
+        <v>684.861443</v>
       </c>
       <c r="I3">
-        <v>0.5331482951864464</v>
+        <v>0.6105798777018374</v>
       </c>
       <c r="J3">
-        <v>0.5331482951864464</v>
+        <v>0.6105798777018375</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>56.3558455161405</v>
+        <v>60.45343933333334</v>
       </c>
       <c r="N3">
-        <v>56.3558455161405</v>
+        <v>181.360318</v>
       </c>
       <c r="O3">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="P3">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="Q3">
-        <v>8533.530117656104</v>
+        <v>13800.74323204654</v>
       </c>
       <c r="R3">
-        <v>8533.530117656104</v>
+        <v>124206.6890884189</v>
       </c>
       <c r="S3">
-        <v>0.1233868538395585</v>
+        <v>0.1325160479335281</v>
       </c>
       <c r="T3">
-        <v>0.1233868538395585</v>
+        <v>0.1325160479335282</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>151.422271097185</v>
+        <v>228.2871476666667</v>
       </c>
       <c r="H4">
-        <v>151.422271097185</v>
+        <v>684.861443</v>
       </c>
       <c r="I4">
-        <v>0.5331482951864464</v>
+        <v>0.6105798777018374</v>
       </c>
       <c r="J4">
-        <v>0.5331482951864464</v>
+        <v>0.6105798777018375</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>59.117438123808</v>
+        <v>59.37981533333334</v>
       </c>
       <c r="N4">
-        <v>59.117438123808</v>
+        <v>178.139446</v>
       </c>
       <c r="O4">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="P4">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="Q4">
-        <v>8951.696742154314</v>
+        <v>13555.64867142007</v>
       </c>
       <c r="R4">
-        <v>8951.696742154314</v>
+        <v>122000.8380427806</v>
       </c>
       <c r="S4">
-        <v>0.1294331516162299</v>
+        <v>0.1301626266722148</v>
       </c>
       <c r="T4">
-        <v>0.1294331516162299</v>
+        <v>0.1301626266722148</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>151.422271097185</v>
+        <v>228.2871476666667</v>
       </c>
       <c r="H5">
-        <v>151.422271097185</v>
+        <v>684.861443</v>
       </c>
       <c r="I5">
-        <v>0.5331482951864464</v>
+        <v>0.6105798777018374</v>
       </c>
       <c r="J5">
-        <v>0.5331482951864464</v>
+        <v>0.6105798777018375</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.6266999034232</v>
+        <v>28.25780433333334</v>
       </c>
       <c r="N5">
-        <v>27.6266999034232</v>
+        <v>84.77341300000001</v>
       </c>
       <c r="O5">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="P5">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="Q5">
-        <v>4183.297642296722</v>
+        <v>6450.893550579441</v>
       </c>
       <c r="R5">
-        <v>4183.297642296722</v>
+        <v>58058.04195521496</v>
       </c>
       <c r="S5">
-        <v>0.06048656624407737</v>
+        <v>0.06194209287059575</v>
       </c>
       <c r="T5">
-        <v>0.06048656624407737</v>
+        <v>0.06194209287059576</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>151.422271097185</v>
+        <v>228.2871476666667</v>
       </c>
       <c r="H6">
-        <v>151.422271097185</v>
+        <v>684.861443</v>
       </c>
       <c r="I6">
-        <v>0.5331482951864464</v>
+        <v>0.6105798777018374</v>
       </c>
       <c r="J6">
-        <v>0.5331482951864464</v>
+        <v>0.6105798777018375</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.73609736209332</v>
+        <v>2.469651333333333</v>
       </c>
       <c r="N6">
-        <v>1.73609736209332</v>
+        <v>7.408954</v>
       </c>
       <c r="O6">
-        <v>0.007129449103726268</v>
+        <v>0.008866263160672582</v>
       </c>
       <c r="P6">
-        <v>0.007129449103726268</v>
+        <v>0.008866263160672582</v>
       </c>
       <c r="Q6">
-        <v>262.8838054140024</v>
+        <v>563.7896586178468</v>
       </c>
       <c r="R6">
-        <v>262.8838054140024</v>
+        <v>5074.106927560621</v>
       </c>
       <c r="S6">
-        <v>0.003801053635270198</v>
+        <v>0.005413561876315772</v>
       </c>
       <c r="T6">
-        <v>0.003801053635270198</v>
+        <v>0.005413561876315772</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>55.2876777858051</v>
+        <v>56.66021733333333</v>
       </c>
       <c r="H7">
-        <v>55.2876777858051</v>
+        <v>169.980652</v>
       </c>
       <c r="I7">
-        <v>0.1946644370259187</v>
+        <v>0.1515441798784964</v>
       </c>
       <c r="J7">
-        <v>0.1946644370259187</v>
+        <v>0.1515441798784964</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>98.6746499847988</v>
+        <v>127.984071</v>
       </c>
       <c r="N7">
-        <v>98.6746499847988</v>
+        <v>383.952213</v>
       </c>
       <c r="O7">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="P7">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="Q7">
-        <v>5455.492253986655</v>
+        <v>7251.605278064762</v>
       </c>
       <c r="R7">
-        <v>5455.492253986655</v>
+        <v>65264.44750258287</v>
       </c>
       <c r="S7">
-        <v>0.07888130891725083</v>
+        <v>0.06963060296576171</v>
       </c>
       <c r="T7">
-        <v>0.07888130891725083</v>
+        <v>0.06963060296576172</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>55.2876777858051</v>
+        <v>56.66021733333333</v>
       </c>
       <c r="H8">
-        <v>55.2876777858051</v>
+        <v>169.980652</v>
       </c>
       <c r="I8">
-        <v>0.1946644370259187</v>
+        <v>0.1515441798784964</v>
       </c>
       <c r="J8">
-        <v>0.1946644370259187</v>
+        <v>0.1515441798784964</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>56.3558455161405</v>
+        <v>60.45343933333334</v>
       </c>
       <c r="N8">
-        <v>56.3558455161405</v>
+        <v>181.360318</v>
       </c>
       <c r="O8">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="P8">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="Q8">
-        <v>3115.783828242985</v>
+        <v>3425.305011174148</v>
       </c>
       <c r="R8">
-        <v>3115.783828242985</v>
+        <v>30827.74510056734</v>
       </c>
       <c r="S8">
-        <v>0.04505131622089744</v>
+        <v>0.03289010420784393</v>
       </c>
       <c r="T8">
-        <v>0.04505131622089744</v>
+        <v>0.03289010420784393</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>55.2876777858051</v>
+        <v>56.66021733333333</v>
       </c>
       <c r="H9">
-        <v>55.2876777858051</v>
+        <v>169.980652</v>
       </c>
       <c r="I9">
-        <v>0.1946644370259187</v>
+        <v>0.1515441798784964</v>
       </c>
       <c r="J9">
-        <v>0.1946644370259187</v>
+        <v>0.1515441798784964</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>59.117438123808</v>
+        <v>59.37981533333334</v>
       </c>
       <c r="N9">
-        <v>59.117438123808</v>
+        <v>178.139446</v>
       </c>
       <c r="O9">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="P9">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="Q9">
-        <v>3268.465870511367</v>
+        <v>3364.473241999866</v>
       </c>
       <c r="R9">
-        <v>3268.465870511367</v>
+        <v>30280.25917799879</v>
       </c>
       <c r="S9">
-        <v>0.04725895556517254</v>
+        <v>0.03230599177967689</v>
       </c>
       <c r="T9">
-        <v>0.04725895556517254</v>
+        <v>0.03230599177967689</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>55.2876777858051</v>
+        <v>56.66021733333333</v>
       </c>
       <c r="H10">
-        <v>55.2876777858051</v>
+        <v>169.980652</v>
       </c>
       <c r="I10">
-        <v>0.1946644370259187</v>
+        <v>0.1515441798784964</v>
       </c>
       <c r="J10">
-        <v>0.1946644370259187</v>
+        <v>0.1515441798784964</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>27.6266999034232</v>
+        <v>28.25780433333334</v>
       </c>
       <c r="N10">
-        <v>27.6266999034232</v>
+        <v>84.77341300000001</v>
       </c>
       <c r="O10">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="P10">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="Q10">
-        <v>1527.416082545595</v>
+        <v>1601.093334889475</v>
       </c>
       <c r="R10">
-        <v>1527.416082545595</v>
+        <v>14409.84001400528</v>
       </c>
       <c r="S10">
-        <v>0.02208500612651606</v>
+        <v>0.01537385034594277</v>
       </c>
       <c r="T10">
-        <v>0.02208500612651606</v>
+        <v>0.01537385034594278</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>55.2876777858051</v>
+        <v>56.66021733333333</v>
       </c>
       <c r="H11">
-        <v>55.2876777858051</v>
+        <v>169.980652</v>
       </c>
       <c r="I11">
-        <v>0.1946644370259187</v>
+        <v>0.1515441798784964</v>
       </c>
       <c r="J11">
-        <v>0.1946644370259187</v>
+        <v>0.1515441798784964</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.73609736209332</v>
+        <v>2.469651333333333</v>
       </c>
       <c r="N11">
-        <v>1.73609736209332</v>
+        <v>7.408954</v>
       </c>
       <c r="O11">
-        <v>0.007129449103726268</v>
+        <v>0.008866263160672582</v>
       </c>
       <c r="P11">
-        <v>0.007129449103726268</v>
+        <v>0.008866263160672582</v>
       </c>
       <c r="Q11">
-        <v>95.98479156020169</v>
+        <v>139.9309812842231</v>
       </c>
       <c r="R11">
-        <v>95.98479156020169</v>
+        <v>1259.378831558008</v>
       </c>
       <c r="S11">
-        <v>0.001387850196081815</v>
+        <v>0.001343630579271051</v>
       </c>
       <c r="T11">
-        <v>0.001387850196081815</v>
+        <v>0.001343630579271052</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.551596317104025</v>
+        <v>0.6468253333333333</v>
       </c>
       <c r="H12">
-        <v>0.551596317104025</v>
+        <v>1.940476</v>
       </c>
       <c r="I12">
-        <v>0.001942135948458909</v>
+        <v>0.001730007742257072</v>
       </c>
       <c r="J12">
-        <v>0.001942135948458909</v>
+        <v>0.001730007742257073</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>98.6746499847988</v>
+        <v>127.984071</v>
       </c>
       <c r="N12">
-        <v>98.6746499847988</v>
+        <v>383.952213</v>
       </c>
       <c r="O12">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="P12">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="Q12">
-        <v>54.42857352314376</v>
+        <v>82.78333938593198</v>
       </c>
       <c r="R12">
-        <v>54.42857352314376</v>
+        <v>745.0500544733879</v>
       </c>
       <c r="S12">
-        <v>0.0007869862007167107</v>
+        <v>0.000794893491293288</v>
       </c>
       <c r="T12">
-        <v>0.0007869862007167107</v>
+        <v>0.0007948934912932882</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.551596317104025</v>
+        <v>0.6468253333333333</v>
       </c>
       <c r="H13">
-        <v>0.551596317104025</v>
+        <v>1.940476</v>
       </c>
       <c r="I13">
-        <v>0.001942135948458909</v>
+        <v>0.001730007742257072</v>
       </c>
       <c r="J13">
-        <v>0.001942135948458909</v>
+        <v>0.001730007742257073</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>56.3558455161405</v>
+        <v>60.45343933333334</v>
       </c>
       <c r="N13">
-        <v>56.3558455161405</v>
+        <v>181.360318</v>
       </c>
       <c r="O13">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="P13">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="Q13">
-        <v>31.08567683398648</v>
+        <v>39.10281604792977</v>
       </c>
       <c r="R13">
-        <v>31.08567683398648</v>
+        <v>351.925344431368</v>
       </c>
       <c r="S13">
-        <v>0.000449469775243771</v>
+        <v>0.0003754689554480598</v>
       </c>
       <c r="T13">
-        <v>0.000449469775243771</v>
+        <v>0.0003754689554480599</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>23</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.551596317104025</v>
+        <v>0.6468253333333333</v>
       </c>
       <c r="H14">
-        <v>0.551596317104025</v>
+        <v>1.940476</v>
       </c>
       <c r="I14">
-        <v>0.001942135948458909</v>
+        <v>0.001730007742257072</v>
       </c>
       <c r="J14">
-        <v>0.001942135948458909</v>
+        <v>0.001730007742257073</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>59.117438123808</v>
+        <v>59.37981533333334</v>
       </c>
       <c r="N14">
-        <v>59.117438123808</v>
+        <v>178.139446</v>
       </c>
       <c r="O14">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="P14">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="Q14">
-        <v>32.60896114571757</v>
+        <v>38.40836884625511</v>
       </c>
       <c r="R14">
-        <v>32.60896114571757</v>
+        <v>345.675319616296</v>
       </c>
       <c r="S14">
-        <v>0.0004714950398337179</v>
+        <v>0.0003688008074275435</v>
       </c>
       <c r="T14">
-        <v>0.0004714950398337179</v>
+        <v>0.0003688008074275436</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>24</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.551596317104025</v>
+        <v>0.6468253333333333</v>
       </c>
       <c r="H15">
-        <v>0.551596317104025</v>
+        <v>1.940476</v>
       </c>
       <c r="I15">
-        <v>0.001942135948458909</v>
+        <v>0.001730007742257072</v>
       </c>
       <c r="J15">
-        <v>0.001942135948458909</v>
+        <v>0.001730007742257073</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>27.6266999034232</v>
+        <v>28.25780433333334</v>
       </c>
       <c r="N15">
-        <v>27.6266999034232</v>
+        <v>84.77341300000001</v>
       </c>
       <c r="O15">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="P15">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="Q15">
-        <v>15.23878592046636</v>
+        <v>18.27786370717644</v>
       </c>
       <c r="R15">
-        <v>15.23878592046636</v>
+        <v>164.500773364588</v>
       </c>
       <c r="S15">
-        <v>0.0002203385732676544</v>
+        <v>0.0001755057841753287</v>
       </c>
       <c r="T15">
-        <v>0.0002203385732676544</v>
+        <v>0.0001755057841753287</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>25</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.551596317104025</v>
+        <v>0.6468253333333333</v>
       </c>
       <c r="H16">
-        <v>0.551596317104025</v>
+        <v>1.940476</v>
       </c>
       <c r="I16">
-        <v>0.001942135948458909</v>
+        <v>0.001730007742257072</v>
       </c>
       <c r="J16">
-        <v>0.001942135948458909</v>
+        <v>0.001730007742257073</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.73609736209332</v>
+        <v>2.469651333333333</v>
       </c>
       <c r="N16">
-        <v>1.73609736209332</v>
+        <v>7.408954</v>
       </c>
       <c r="O16">
-        <v>0.007129449103726268</v>
+        <v>0.008866263160672582</v>
       </c>
       <c r="P16">
-        <v>0.007129449103726268</v>
+        <v>0.008866263160672582</v>
       </c>
       <c r="Q16">
-        <v>0.9576249110646883</v>
+        <v>1.597433046900444</v>
       </c>
       <c r="R16">
-        <v>0.9576249110646883</v>
+        <v>14.376897422104</v>
       </c>
       <c r="S16">
-        <v>1.384635939705493E-05</v>
+        <v>1.533870391285223E-05</v>
       </c>
       <c r="T16">
-        <v>1.384635939705493E-05</v>
+        <v>1.533870391285223E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.619611583896011</v>
+        <v>0.7467493333333334</v>
       </c>
       <c r="H17">
-        <v>0.619611583896011</v>
+        <v>2.240248</v>
       </c>
       <c r="I17">
-        <v>0.002181613426071994</v>
+        <v>0.00199726581754988</v>
       </c>
       <c r="J17">
-        <v>0.002181613426071994</v>
+        <v>0.001997265817549881</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>98.6746499847988</v>
+        <v>127.984071</v>
       </c>
       <c r="N17">
-        <v>98.6746499847988</v>
+        <v>383.952213</v>
       </c>
       <c r="O17">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="P17">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="Q17">
-        <v>61.13995616746568</v>
+        <v>95.57201969653599</v>
       </c>
       <c r="R17">
-        <v>61.13995616746568</v>
+        <v>860.148177268824</v>
       </c>
       <c r="S17">
-        <v>0.0008840265085352705</v>
+        <v>0.0009176916148835678</v>
       </c>
       <c r="T17">
-        <v>0.0008840265085352705</v>
+        <v>0.0009176916148835682</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>22</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.619611583896011</v>
+        <v>0.7467493333333334</v>
       </c>
       <c r="H18">
-        <v>0.619611583896011</v>
+        <v>2.240248</v>
       </c>
       <c r="I18">
-        <v>0.002181613426071994</v>
+        <v>0.00199726581754988</v>
       </c>
       <c r="J18">
-        <v>0.002181613426071994</v>
+        <v>0.001997265817549881</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>56.3558455161405</v>
+        <v>60.45343933333334</v>
       </c>
       <c r="N18">
-        <v>56.3558455161405</v>
+        <v>181.360318</v>
       </c>
       <c r="O18">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="P18">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="Q18">
-        <v>34.91873470205472</v>
+        <v>45.14356551987378</v>
       </c>
       <c r="R18">
-        <v>34.91873470205472</v>
+        <v>406.292089678864</v>
       </c>
       <c r="S18">
-        <v>0.0005048922023524961</v>
+        <v>0.0004334728059015443</v>
       </c>
       <c r="T18">
-        <v>0.0005048922023524961</v>
+        <v>0.0004334728059015445</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>23</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.619611583896011</v>
+        <v>0.7467493333333334</v>
       </c>
       <c r="H19">
-        <v>0.619611583896011</v>
+        <v>2.240248</v>
       </c>
       <c r="I19">
-        <v>0.002181613426071994</v>
+        <v>0.00199726581754988</v>
       </c>
       <c r="J19">
-        <v>0.002181613426071994</v>
+        <v>0.001997265817549881</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>59.117438123808</v>
+        <v>59.37981533333334</v>
       </c>
       <c r="N19">
-        <v>59.117438123808</v>
+        <v>178.139446</v>
       </c>
       <c r="O19">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="P19">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="Q19">
-        <v>36.6298494717671</v>
+        <v>44.34183751362312</v>
       </c>
       <c r="R19">
-        <v>36.6298494717671</v>
+        <v>399.0765376226081</v>
       </c>
       <c r="S19">
-        <v>0.000529633319461391</v>
+        <v>0.0004257745374011014</v>
       </c>
       <c r="T19">
-        <v>0.000529633319461391</v>
+        <v>0.0004257745374011015</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>24</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.619611583896011</v>
+        <v>0.7467493333333334</v>
       </c>
       <c r="H20">
-        <v>0.619611583896011</v>
+        <v>2.240248</v>
       </c>
       <c r="I20">
-        <v>0.002181613426071994</v>
+        <v>0.00199726581754988</v>
       </c>
       <c r="J20">
-        <v>0.002181613426071994</v>
+        <v>0.001997265817549881</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>27.6266999034232</v>
+        <v>28.25780433333334</v>
       </c>
       <c r="N20">
-        <v>27.6266999034232</v>
+        <v>84.77341300000001</v>
       </c>
       <c r="O20">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="P20">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="Q20">
-        <v>17.11782328497982</v>
+        <v>21.10149654738045</v>
       </c>
       <c r="R20">
-        <v>17.11782328497982</v>
+        <v>189.913468926424</v>
       </c>
       <c r="S20">
-        <v>0.0002475076938376505</v>
+        <v>0.0002026185750234539</v>
       </c>
       <c r="T20">
-        <v>0.0002475076938376505</v>
+        <v>0.000202618575023454</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>25</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.619611583896011</v>
+        <v>0.7467493333333334</v>
       </c>
       <c r="H21">
-        <v>0.619611583896011</v>
+        <v>2.240248</v>
       </c>
       <c r="I21">
-        <v>0.002181613426071994</v>
+        <v>0.00199726581754988</v>
       </c>
       <c r="J21">
-        <v>0.002181613426071994</v>
+        <v>0.001997265817549881</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.73609736209332</v>
+        <v>2.469651333333333</v>
       </c>
       <c r="N21">
-        <v>1.73609736209332</v>
+        <v>7.408954</v>
       </c>
       <c r="O21">
-        <v>0.007129449103726268</v>
+        <v>0.008866263160672582</v>
       </c>
       <c r="P21">
-        <v>0.007129449103726268</v>
+        <v>0.008866263160672582</v>
       </c>
       <c r="Q21">
-        <v>1.075706036324328</v>
+        <v>1.844210486732444</v>
       </c>
       <c r="R21">
-        <v>1.075706036324328</v>
+        <v>16.597894380592</v>
       </c>
       <c r="S21">
-        <v>1.555370188518617E-05</v>
+        <v>1.770828434021311E-05</v>
       </c>
       <c r="T21">
-        <v>1.555370188518617E-05</v>
+        <v>1.770828434021312E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.742817901972584</v>
+        <v>0.8022086666666667</v>
       </c>
       <c r="H22">
-        <v>0.742817901972584</v>
+        <v>2.406626</v>
       </c>
       <c r="I22">
-        <v>0.002615415124876029</v>
+        <v>0.002145598096919091</v>
       </c>
       <c r="J22">
-        <v>0.002615415124876029</v>
+        <v>0.002145598096919091</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>98.6746499847988</v>
+        <v>127.984071</v>
       </c>
       <c r="N22">
-        <v>98.6746499847988</v>
+        <v>383.952213</v>
       </c>
       <c r="O22">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="P22">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="Q22">
-        <v>73.29729647958732</v>
+        <v>102.669930951482</v>
       </c>
       <c r="R22">
-        <v>73.29729647958732</v>
+        <v>924.029378563338</v>
       </c>
       <c r="S22">
-        <v>0.00105981026408397</v>
+        <v>0.0009858464332345265</v>
       </c>
       <c r="T22">
-        <v>0.00105981026408397</v>
+        <v>0.0009858464332345267</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>22</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.742817901972584</v>
+        <v>0.8022086666666667</v>
       </c>
       <c r="H23">
-        <v>0.742817901972584</v>
+        <v>2.406626</v>
       </c>
       <c r="I23">
-        <v>0.002615415124876029</v>
+        <v>0.002145598096919091</v>
       </c>
       <c r="J23">
-        <v>0.002615415124876029</v>
+        <v>0.002145598096919091</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>56.3558455161405</v>
+        <v>60.45343933333334</v>
       </c>
       <c r="N23">
-        <v>56.3558455161405</v>
+        <v>181.360318</v>
       </c>
       <c r="O23">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="P23">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="Q23">
-        <v>41.86213093019054</v>
+        <v>48.49627296300756</v>
       </c>
       <c r="R23">
-        <v>41.86213093019054</v>
+        <v>436.466456667068</v>
       </c>
       <c r="S23">
-        <v>0.0006052872093119901</v>
+        <v>0.0004656658213624608</v>
       </c>
       <c r="T23">
-        <v>0.0006052872093119901</v>
+        <v>0.0004656658213624609</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.742817901972584</v>
+        <v>0.8022086666666667</v>
       </c>
       <c r="H24">
-        <v>0.742817901972584</v>
+        <v>2.406626</v>
       </c>
       <c r="I24">
-        <v>0.002615415124876029</v>
+        <v>0.002145598096919091</v>
       </c>
       <c r="J24">
-        <v>0.002615415124876029</v>
+        <v>0.002145598096919091</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>59.117438123808</v>
+        <v>59.37981533333334</v>
       </c>
       <c r="N24">
-        <v>59.117438123808</v>
+        <v>178.139446</v>
       </c>
       <c r="O24">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="P24">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="Q24">
-        <v>43.91349135712111</v>
+        <v>47.63500248546623</v>
       </c>
       <c r="R24">
-        <v>43.91349135712111</v>
+        <v>428.7150223691961</v>
       </c>
       <c r="S24">
-        <v>0.0006349479599837717</v>
+        <v>0.0004573958203946452</v>
       </c>
       <c r="T24">
-        <v>0.0006349479599837717</v>
+        <v>0.0004573958203946453</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>24</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.742817901972584</v>
+        <v>0.8022086666666667</v>
       </c>
       <c r="H25">
-        <v>0.742817901972584</v>
+        <v>2.406626</v>
       </c>
       <c r="I25">
-        <v>0.002615415124876029</v>
+        <v>0.002145598096919091</v>
       </c>
       <c r="J25">
-        <v>0.002615415124876029</v>
+        <v>0.002145598096919091</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>27.6266999034232</v>
+        <v>28.25780433333334</v>
       </c>
       <c r="N25">
-        <v>27.6266999034232</v>
+        <v>84.77341300000001</v>
       </c>
       <c r="O25">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="P25">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="Q25">
-        <v>20.52160726068701</v>
+        <v>22.66865553717089</v>
       </c>
       <c r="R25">
-        <v>20.52160726068701</v>
+        <v>204.017899834538</v>
       </c>
       <c r="S25">
-        <v>0.0002967232224783779</v>
+        <v>0.0002176665845631353</v>
       </c>
       <c r="T25">
-        <v>0.0002967232224783779</v>
+        <v>0.0002176665845631354</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>25</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.742817901972584</v>
+        <v>0.8022086666666667</v>
       </c>
       <c r="H26">
-        <v>0.742817901972584</v>
+        <v>2.406626</v>
       </c>
       <c r="I26">
-        <v>0.002615415124876029</v>
+        <v>0.002145598096919091</v>
       </c>
       <c r="J26">
-        <v>0.002615415124876029</v>
+        <v>0.002145598096919091</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.73609736209332</v>
+        <v>2.469651333333333</v>
       </c>
       <c r="N26">
-        <v>1.73609736209332</v>
+        <v>7.408954</v>
       </c>
       <c r="O26">
-        <v>0.007129449103726268</v>
+        <v>0.008866263160672582</v>
       </c>
       <c r="P26">
-        <v>0.007129449103726268</v>
+        <v>0.008866263160672582</v>
       </c>
       <c r="Q26">
-        <v>1.289604200130297</v>
+        <v>1.981175703244889</v>
       </c>
       <c r="R26">
-        <v>1.289604200130297</v>
+        <v>17.830581329204</v>
       </c>
       <c r="S26">
-        <v>1.864646901791953E-05</v>
+        <v>1.902343736432293E-05</v>
       </c>
       <c r="T26">
-        <v>1.864646901791953E-05</v>
+        <v>1.902343736432294E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>20</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>75.39132174151879</v>
+        <v>86.74265433333333</v>
       </c>
       <c r="H27">
-        <v>75.39132174151879</v>
+        <v>260.227963</v>
       </c>
       <c r="I27">
-        <v>0.2654481032882279</v>
+        <v>0.2320030707629401</v>
       </c>
       <c r="J27">
-        <v>0.2654481032882279</v>
+        <v>0.2320030707629402</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>98.6746499847988</v>
+        <v>127.984071</v>
       </c>
       <c r="N27">
-        <v>98.6746499847988</v>
+        <v>383.952213</v>
       </c>
       <c r="O27">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="P27">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="Q27">
-        <v>7439.21228473572</v>
+        <v>11101.67803092579</v>
       </c>
       <c r="R27">
-        <v>7439.21228473572</v>
+        <v>99915.10227833211</v>
       </c>
       <c r="S27">
-        <v>0.1075640428055644</v>
+        <v>0.1065993673929544</v>
       </c>
       <c r="T27">
-        <v>0.1075640428055644</v>
+        <v>0.1065993673929544</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>75.39132174151879</v>
+        <v>86.74265433333333</v>
       </c>
       <c r="H28">
-        <v>75.39132174151879</v>
+        <v>260.227963</v>
       </c>
       <c r="I28">
-        <v>0.2654481032882279</v>
+        <v>0.2320030707629401</v>
       </c>
       <c r="J28">
-        <v>0.2654481032882279</v>
+        <v>0.2320030707629402</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>56.3558455161405</v>
+        <v>60.45343933333334</v>
       </c>
       <c r="N28">
-        <v>56.3558455161405</v>
+        <v>181.360318</v>
       </c>
       <c r="O28">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="P28">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="Q28">
-        <v>4248.741681322677</v>
+        <v>5243.891791352471</v>
       </c>
       <c r="R28">
-        <v>4248.741681322677</v>
+        <v>47195.02612217223</v>
       </c>
       <c r="S28">
-        <v>0.06143282575996736</v>
+        <v>0.0503523472828246</v>
       </c>
       <c r="T28">
-        <v>0.06143282575996736</v>
+        <v>0.05035234728282462</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>75.39132174151879</v>
+        <v>86.74265433333333</v>
       </c>
       <c r="H29">
-        <v>75.39132174151879</v>
+        <v>260.227963</v>
       </c>
       <c r="I29">
-        <v>0.2654481032882279</v>
+        <v>0.2320030707629401</v>
       </c>
       <c r="J29">
-        <v>0.2654481032882279</v>
+        <v>0.2320030707629402</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>59.117438123808</v>
+        <v>59.37981533333334</v>
       </c>
       <c r="N29">
-        <v>59.117438123808</v>
+        <v>178.139446</v>
       </c>
       <c r="O29">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="P29">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="Q29">
-        <v>4456.941798126338</v>
+        <v>5150.7627958365</v>
       </c>
       <c r="R29">
-        <v>4456.941798126338</v>
+        <v>46356.8651625285</v>
       </c>
       <c r="S29">
-        <v>0.06444320446927557</v>
+        <v>0.04945811381827187</v>
       </c>
       <c r="T29">
-        <v>0.06444320446927557</v>
+        <v>0.04945811381827188</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>75.39132174151879</v>
+        <v>86.74265433333333</v>
       </c>
       <c r="H30">
-        <v>75.39132174151879</v>
+        <v>260.227963</v>
       </c>
       <c r="I30">
-        <v>0.2654481032882279</v>
+        <v>0.2320030707629401</v>
       </c>
       <c r="J30">
-        <v>0.2654481032882279</v>
+        <v>0.2320030707629402</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>27.6266999034232</v>
+        <v>28.25780433333334</v>
       </c>
       <c r="N30">
-        <v>27.6266999034232</v>
+        <v>84.77341300000001</v>
       </c>
       <c r="O30">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="P30">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="Q30">
-        <v>2082.813421075365</v>
+        <v>2451.156953505302</v>
       </c>
       <c r="R30">
-        <v>2082.813421075365</v>
+        <v>22060.41258154772</v>
       </c>
       <c r="S30">
-        <v>0.0301155315113465</v>
+        <v>0.02353624198942085</v>
       </c>
       <c r="T30">
-        <v>0.0301155315113465</v>
+        <v>0.02353624198942086</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>75.39132174151879</v>
+        <v>86.74265433333333</v>
       </c>
       <c r="H31">
-        <v>75.39132174151879</v>
+        <v>260.227963</v>
       </c>
       <c r="I31">
-        <v>0.2654481032882279</v>
+        <v>0.2320030707629401</v>
       </c>
       <c r="J31">
-        <v>0.2654481032882279</v>
+        <v>0.2320030707629402</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.73609736209332</v>
+        <v>2.469651333333333</v>
       </c>
       <c r="N31">
-        <v>1.73609736209332</v>
+        <v>7.408954</v>
       </c>
       <c r="O31">
-        <v>0.007129449103726268</v>
+        <v>0.008866263160672582</v>
       </c>
       <c r="P31">
-        <v>0.007129449103726268</v>
+        <v>0.008866263160672582</v>
       </c>
       <c r="Q31">
-        <v>130.8866748001795</v>
+        <v>214.2241119311891</v>
       </c>
       <c r="R31">
-        <v>130.8866748001795</v>
+        <v>1928.017007380702</v>
       </c>
       <c r="S31">
-        <v>0.001892498742074095</v>
+        <v>0.00205700027946837</v>
       </c>
       <c r="T31">
-        <v>0.001892498742074095</v>
+        <v>0.002057000279468371</v>
       </c>
     </row>
   </sheetData>
